--- a/results/6800xt.xlsx
+++ b/results/6800xt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-RadeonTM-Graphique-RX-68XLALFD9/dp/B0BCR4FKLB/ref=sr_1_10?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-10</t>
+          <t>https://www.amazon.fr/XFX-Speedster-RadeonTM-Graphique-RX-68XLALFD9/dp/B0BCR4FKLB/ref=sr_1_9?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-9</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -522,22 +522,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX SPEEDSTER QICK319 AMD RADEON RX 6800 CORE GAMING GRAPHICS CARD WITH 16GB GDDR6 HDMI 3XDP AMD RDNA 2  </t>
+          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon™ RX 6800 Core Gaming Tarjeta Gráfica con 16GB GDDR6 HDMI 3xDP, AMD RDNA™ 2 (RX-68XLALFD9)  </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/XFX-SPEEDSTER-QICK319-RADEON-GRAPHICS/dp/B0BCR4FKLB/ref=sr_1_48?keywords=6800xt&amp;qid=1671224975&amp;sr=8-48</t>
+          <t>https://www.amazon.es/XFX-Speedster-QICK319-RadeonTM-RX-68XLALFD9/dp/B0BCR4FKLB/ref=sr_1_18?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>559</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
+        <v>565</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +548,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,22 +563,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster QICK319 AMD Radeon™ RX 6800 Core Gaming Tarjeta Gráfica con 16GB GDDR6 HDMI 3xDP, AMD RDNA™ 2 (RX-68XLALFD9)  </t>
+          <t xml:space="preserve">Gigabyte Radeon RX 6800 Gaming OC Grafikkarte, 16 GB, GV-R68XTGAMING OC-16GD, One Size  </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-QICK319-RadeonTM-RX-68XLALFD9/dp/B0BCR4FKLB/ref=sr_1_18?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-18</t>
+          <t>https://www.amazon.de/Gigabyte-Radeon-6800-Gaming-Grafikkarte/dp/B08P3M97FG/ref=sr_1_4?keywords=6800xt&amp;qid=1671321359&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
+        <v>628</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung bis </t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>574</v>
+        <v>628</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -585,7 +589,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -600,24 +604,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6800 XT Core Carte Graphique de Gaming avec GDDR6 HDMI 3xDP RX-68XTALFD9 16 Go  </t>
+          <t xml:space="preserve">ASROCK - VGA CARDS Radeon RX6800 Phantom Gaming D 16G OC GDDR6 1850MHZ HDMI DPX3  </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-MERC319-Graphique-RX-68XTALFD9/dp/B08TJ2BHCQ/ref=sr_1_1?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-1</t>
+          <t>https://www.amazon.it/ASROCK-Radeon-RX6800-Phantom-1850MHZ/dp/B08Q7D4M98/ref=sr_1_15?keywords=6800xt&amp;qid=1671321358&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>649</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>638</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -626,7 +628,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -641,22 +643,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6800 XT CORE - Scheda grafica da gioco con 16 GB GDDR6 HDMI 3xDP RX-68XTALFD9  </t>
+          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6800 XT Core Carte Graphique de Gaming avec GDDR6 HDMI 3xDP RX-68XTALFD9 16 Go  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/XFX-Speedster-MERC319-Radeon-6800/dp/B08TJ2BHCQ/ref=sr_1_12?keywords=6800xt&amp;qid=1671224975&amp;sr=8-12</t>
+          <t>https://www.amazon.fr/XFX-Speedster-MERC319-Graphique-RX-68XTALFD9/dp/B08TJ2BHCQ/ref=sr_1_1?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>649</v>
       </c>
-      <c r="E6" t="n">
-        <v>9</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -665,7 +669,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -685,17 +689,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-MERC319-Radeon-6800/dp/B08TJ2BHCQ/ref=sr_1_1?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-1</t>
+          <t>https://www.amazon.es/XFX-Speedster-MERC319-Radeon-6800/dp/B08TJ2BHCQ/ref=sr_1_1?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>655</v>
       </c>
-      <c r="E7" t="n">
-        <v>9</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -719,22 +725,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASROCK - VGA CARDS Radeon RX6800 Phantom Gaming D 16G OC GDDR6 1850MHZ HDMI DPX3  </t>
+          <t xml:space="preserve">XFX Speedster MERC319 AMD Radeon RX 6800 XT CORE - Scheda grafica da gioco con 16 GB GDDR6 HDMI 3xDP RX-68XTALFD9  </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASROCK-Radeon-RX6800-Phantom-1850MHZ/dp/B08Q7D4M98/ref=sr_1_13?keywords=6800xt&amp;qid=1671224975&amp;sr=8-13</t>
+          <t>https://www.amazon.it/XFX-Speedster-MERC319-Radeon-6800/dp/B08TJ2BHCQ/ref=sr_1_13?keywords=6800xt&amp;qid=1671321358&amp;sr=8-13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -758,31 +764,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Radeon RX 6800 GAMING OC 16G AMD 16 GB GDDR6  </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 OC Pulse Gaming Grafikkarte mit 16GB GDDR6  </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-Radeon-RX-6800-GAMING/dp/B08P3M97FG/ref=sr_1_16?keywords=6800xt&amp;qid=1671224975&amp;sr=8-16</t>
+          <t>https://www.amazon.de/Sapphire-Radeon-Pulse-Gaming-Grafikkarte/dp/B08QXLVSHY/ref=sr_1_8?keywords=6800xt&amp;qid=1671321359&amp;sr=8-8</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>669</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
+        <v>671</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung </t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>678</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>671</v>
+      </c>
+      <c r="G9" t="n">
+        <v>671</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -797,24 +803,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Carte Graphique AMD Radeon RX 6800 Gaming OC 16Go GV-R68XTGAMING OC-16GD Taille Unique Noir  </t>
+          <t xml:space="preserve">Gigabyte Radeon RX 6800 GAMING OC 16G AMD 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Gigabyte-Radeon-Gaming-Carte-Graphique/dp/B08P3M97FG/ref=sr_1_15?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-15</t>
+          <t>https://www.amazon.it/Gigabyte-Radeon-RX-6800-GAMING/dp/B08P3M97FG/ref=sr_1_18?keywords=6800xt&amp;qid=1671321358&amp;sr=8-18</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>689</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le </t>
-        </is>
+        <v>669</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -823,7 +827,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -838,24 +842,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor, AXRX 6800XT Red Dragon 16GBD6-3DHR/OC-3DHR/OC RX 6800XT 16 Go Carte Graphique Rouge  </t>
+          <t xml:space="preserve">XFX RX 6800XT MERC 319 AMD Radeon 16GB GDDR6 3xDP 1xHDMI XFX Video Card  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/PowerColor-RadeonTM-Graphique-aliment%C3%A9e-Raytracing/dp/B08V1WK4LB/ref=sr_1_3?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-3</t>
+          <t>https://www.amazon.de/XFX-6800XT-Radeon-GDDR6-1xHDMI/dp/B08TJ2BHCQ/ref=sr_1_2?keywords=6800xt&amp;qid=1671321359&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -864,7 +868,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -879,16 +883,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASRock - VGA Cards Radeon RX6800 Phantom Gaming D 16G OC GDDR6 1850MHz HDMI DPX3  </t>
+          <t xml:space="preserve">GIGABYTE Carte Graphique AMD Radeon RX 6800 Gaming OC 16Go GV-R68XTGAMING OC-16GD Taille Unique Noir  </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASROCK-Radeon-RX6800-Phantom-1850MHz/dp/B08Q7D4M98/ref=sr_1_20?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-20</t>
+          <t>https://www.amazon.fr/Gigabyte-Radeon-Gaming-Carte-Graphique/dp/B08P3M97FG/ref=sr_1_17?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-17</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -896,10 +900,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>699</v>
-      </c>
-      <c r="G12" t="n">
-        <v>699</v>
+        <v>689</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -918,24 +924,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asrock RX6800 PGD 16GO Tarjeta gráfica AMD Radeon RX 6800 16 GB GDDR6  </t>
+          <t xml:space="preserve">ASRock - VGA Cards Radeon RX6800 Phantom Gaming D 16G OC GDDR6 1850MHz HDMI DPX3  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-RX6800-PGD-16GO-Tarjeta/dp/B08Q7D4M98/ref=sr_1_25?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-25</t>
+          <t>https://www.amazon.fr/ASROCK-Radeon-RX6800-Phantom-1850MHz/dp/B08Q7D4M98/ref=sr_1_20?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -944,7 +950,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -959,27 +965,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor Red Dragon AMD Radeon™ RX 6800 XT Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, Alimentado por AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">Asrock RX6800 PGD 16GO Tarjeta gráfica AMD Radeon RX 6800 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-RadeonTM-Alimentado-Raytracing-Infinity/dp/B08V1WK4LB/ref=sr_1_2?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-2</t>
+          <t>https://www.amazon.es/Asrock-RX6800-PGD-16GO-Tarjeta/dp/B08Q7D4M98/ref=sr_1_25?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-25</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>701</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
+        <v>712</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>706</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>712</v>
+      </c>
+      <c r="G14" t="n">
+        <v>700</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -998,22 +1004,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">VGA POWERCOLOR RADEON RX6800XT RED DRAGON 16GB GDDR6 HDMI 3XDP  </t>
+          <t xml:space="preserve">PowerColor Red Dragon AMD Radeon™ RX 6800 Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, con tecnología AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/PowerColor-Red-Dragon-RadeonTM-6800/dp/B08V1WK4LB/ref=sr_1_3?keywords=6800xt&amp;qid=1671224975&amp;sr=8-3</t>
+          <t>https://www.amazon.es/PowerColor-RadeonTM-tecnolog%C3%ADa-Raytracing-Infinity/dp/B08P2C8XXH/ref=sr_1_21?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-21</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>708</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
+        <v>749</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1022,7 +1030,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1037,31 +1045,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Technology Radeon RX 6800 Gaming OC - Tarjeta gráfica (16 GB), GV-R68XTGAMING OC-16GD  </t>
+          <t xml:space="preserve">XFX RX 6800 RX-68LMATFD8 Carte Graphique GDDR6 2 x DP HDMI USB-C PCIe 4.0 16 Go  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6800-Gaming/dp/B08P3M97FG/ref=sr_1_20?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-20</t>
+          <t>https://www.amazon.fr/XFX-RX-68LMATFD8-Carte-Graphique-GDDR6/dp/B08NN76VJD/ref=sr_1_37?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-37</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>743</v>
-      </c>
-      <c r="G16" t="n">
-        <v>734</v>
+        <v>749</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1081,7 +1091,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-QICK319-Graphique-RX-68XLALBD9/dp/B08THKRCSR/ref=sr_1_38?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-38</t>
+          <t>https://www.amazon.fr/XFX-Speedster-QICK319-Graphique-RX-68XLALBD9/dp/B08THKRCSR/ref=sr_1_40?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-40</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1117,33 +1127,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX 6800 RX-68LMATFD8 Carte Graphique GDDR6 2 x DP HDMI USB-C PCIe 4.0 16 Go  </t>
+          <t xml:space="preserve">Gigabyte Technology Radeon RX 6800 Gaming OC - Tarjeta gráfica (16 GB), GV-R68XTGAMING OC-16GD  </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-RX-68LMATFD8-Carte-Graphique-GDDR6/dp/B08NN76VJD/ref=sr_1_41?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-41</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6800-Gaming/dp/B08P3M97FG/ref=sr_1_20?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-20</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>749</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>752</v>
+      </c>
+      <c r="G18" t="n">
+        <v>734</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1158,24 +1166,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE NITRO+ AMD Radeon™ RX 6800 OC Gaming Graphics Card with 16GB GDDR6  </t>
+          <t xml:space="preserve">Asrock RX6800 CLP 16GO Tarjeta gráfica AMD Radeon RX 6800 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-NITRO-RadeonTM-Gaming-Graphics/dp/B08NX95TVN/ref=sr_1_34?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-34</t>
+          <t>https://www.amazon.es/Asrock-RX6800-CLP-16GO-Tarjeta/dp/B08PFJ1Y6K/ref=sr_1_46?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-46</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1184,7 +1192,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1199,31 +1207,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor Red Dragon AMD Radeon™ RX 6800 Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, con tecnología AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
+          <t xml:space="preserve">SAPPHIRE NITRO+ AMD Radeon™ RX 6800 OC Gaming Graphics Card with 16GB GDDR6  </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/PowerColor-RadeonTM-tecnolog%C3%ADa-Raytracing-Infinity/dp/B08P2C8XXH/ref=sr_1_21?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-21</t>
+          <t>https://www.amazon.fr/SAPPHIRE-NITRO-RadeonTM-Gaming-Graphics/dp/B08NX95TVN/ref=sr_1_28?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-28</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>767</v>
-      </c>
-      <c r="G20" t="n">
-        <v>749</v>
+        <v>761</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1243,11 +1253,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-Graphique-DisplayPort-Refroidissement-Ventilateurs/dp/B08QD49S3B/ref=sr_1_2_mod_primary_new?keywords=6800+xt&amp;qid=1671224974&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-2</t>
+          <t>https://www.amazon.fr/MSI-Graphique-DisplayPort-Refroidissement-Ventilateurs/dp/B08QD49S3B/ref=sr_1_2?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1255,7 +1265,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1284,7 +1294,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-QICK319-Radeon-6800/dp/B08THKRCSR/ref=sr_1_23?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-23</t>
+          <t>https://www.amazon.es/XFX-Speedster-QICK319-Radeon-6800/dp/B08THKRCSR/ref=sr_1_23?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-23</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1292,7 +1302,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega por 18€ entre el </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1320,31 +1330,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire PULSE RADEON RX 6800 XT GAMING OC 16 GB GDDR6 HDMI/TRIPLA DP  </t>
+          <t xml:space="preserve">PowerColor Red Dragon AMD Radeon™ RX 6800 XT Tarjeta gráfica para Juegos con Memoria GDDR6 de 16 GB, Alimentado por AMD RDNA™ 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-Pulse-Radeon-6800-Gaming/dp/B08PQ585CX/ref=sr_1_15?keywords=6800xt&amp;qid=1671224975&amp;sr=8-15</t>
+          <t>https://www.amazon.es/PowerColor-RadeonTM-Alimentado-Raytracing-Infinity/dp/B08V1WK4LB/ref=sr_1_2?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>849</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9</v>
+        <v>782</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>858</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>782</v>
+      </c>
+      <c r="G23" t="n">
+        <v>780</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1359,29 +1369,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE TECHNOLOGY Pulse AMD Radeon RX 6800 OC CTLR  </t>
+          <t xml:space="preserve">PowerColor Red Dragon AMD Radeon RX 6800 XT Gaming-Grafikkarte mit 16 GB GDDR6 Speicher, angetrieben von AMD RDNA 2, Raytracing, PCI Express 4.0, HDMI 2.1, AMD Infinity Cache schwarz  </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/SAPPHIRE-TECHNOLOGY-Pulse-Radeon-6800/dp/B08QXLVSHY/ref=sr_1_46?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-46</t>
+          <t>https://www.amazon.de/PowerColor-Gaming-Grafikkarte-Speicher-angetrieben-Raytracing/dp/B08V1WK4LB/ref=sr_1_1?keywords=6800xt&amp;qid=1671321359&amp;sr=8-1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>855</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9</v>
+        <v>827</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung </t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="G24" t="n">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1396,33 +1408,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASRock - VGA Cards Radeon RX6800XT Phantom Gaming 16G OC GDDR6 1875 MHz HDMI DPX3  </t>
+          <t xml:space="preserve">Sapphire PULSE RADEON RX 6800 XT GAMING OC 16 GB GDDR6 HDMI/TRIPLA DP  </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASROCK-Radeon-RX6800XT-Phantom-Gaming/dp/B08QV6T8TG/ref=sr_1_8?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-8</t>
+          <t>https://www.amazon.it/SAPPHIRE-Pulse-Radeon-6800-Gaming/dp/B08PQ585CX/ref=sr_1_17?keywords=6800xt&amp;qid=1671321358&amp;sr=8-17</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>879</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
-        </is>
+        <v>825</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>879</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>834</v>
+      </c>
+      <c r="G25" t="n">
+        <v>739</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1437,16 +1445,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF GAMING AMD Radeon RX 6800 XT OC Edition – Carte graphique gaming (16GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurs à double roulement à billes)  </t>
+          <t xml:space="preserve">Powercolor, AXRX 6800XT Red Dragon 16GBD6-3DHR/OC-3DHR/OC RX 6800XT 16 Go Carte Graphique Rouge  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/TUF-RX6800XT-O16G-Gaming-GDDR6-HDMI-DP-16/dp/B08QVRZH3C/ref=sr_1_12?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-12</t>
+          <t>https://www.amazon.fr/PowerColor-RadeonTM-Graphique-aliment%C3%A9e-Raytracing/dp/B08V1WK4LB/ref=sr_1_3?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>880</v>
+        <v>842</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1454,10 +1462,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>880</v>
+        <v>842</v>
       </c>
       <c r="G26" t="n">
-        <v>729</v>
+        <v>810</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1476,29 +1484,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6800 Gaming X Trio 16G - Tarjeta Gráfica Enthusiast Gaming  </t>
+          <t xml:space="preserve">VGA POWERCOLOR RADEON RX6800XT RED DRAGON 16GB GDDR6 HDMI 3XDP  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/MSI-Radeon-6800-Gaming-Trio/dp/B08QD49S3B/ref=sr_1_28?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-28</t>
+          <t>https://www.amazon.it/PowerColor-Red-Dragon-RadeonTM-6800/dp/B08V1WK4LB/ref=sr_1_2?keywords=6800xt&amp;qid=1671321358&amp;sr=8-2</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="G27" t="n">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1513,31 +1521,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 OC Edition Scheda Grafica, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Telaio in Alluminio, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">ASUS TUF GAMING AMD Radeon RX 6800 OC Edition – Carte graphique gaming(16GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurs à double roulement à billes)  </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASUS-90YV0FM1-M0NA00-TUF-RX6800-O16G-GAMING/dp/B08P8Y81LF/ref=sr_1_14?keywords=6800xt&amp;qid=1671224975&amp;sr=8-14</t>
+          <t>https://www.amazon.fr/ASUS-90YV0FM1-M0NA00-TUF-RX6800-O16G-GAMING/dp/B08P8Y81LF/ref=sr_1_15?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-15</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>870</v>
-      </c>
-      <c r="E28" t="n">
-        <v>31</v>
+        <v>869</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>901</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>869</v>
+      </c>
+      <c r="G28" t="n">
+        <v>634</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1552,29 +1560,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerLix Asrock RX6800XT PGD 16GO Tarjeta gráfica AMD GeForce 6800 XT 16 GB GDDR6  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 OC Edition Scheda Grafica, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Telaio in Alluminio, GPU Tweak II, Nero  </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Asrock-RX6800XT-Tarjeta-gr%C3%A1fica-GeForce/dp/B08QV6T8TG/ref=sr_1_5?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-5</t>
+          <t>https://www.amazon.it/ASUS-90YV0FM1-M0NA00-TUF-RX6800-O16G-GAMING/dp/B08P8Y81LF/ref=sr_1_16?keywords=6800xt&amp;qid=1671321358&amp;sr=8-16</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>901</v>
+        <v>869</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="G29" t="n">
-        <v>867</v>
+        <v>670</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1589,29 +1597,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 OC Edition - Trajeta gráfica (PCIe 4.0, 16 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, cojinetes de Bolas Dobles, Cubierta de Aluminio, GPU Tweak II)  </t>
+          <t xml:space="preserve">ASRock - VGA Cards Radeon RX6800XT Phantom Gaming 16G OC GDDR6 1875 MHz HDMI DPX3  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/ASUS-TUF-Gaming-Radeon-6800/dp/B08P8Y81LF/ref=sr_1_37?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-37</t>
+          <t>https://www.amazon.fr/ASROCK-Radeon-RX6800XT-Phantom-Gaming/dp/B08QV6T8TG/ref=sr_1_12?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-12</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6</v>
+        <v>879</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>903</v>
-      </c>
-      <c r="G30" t="n">
-        <v>787</v>
+        <v>879</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1626,33 +1638,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powercolor RX 6800XT Red Devil Edition 16 Go  </t>
+          <t xml:space="preserve">MSI Radeon RX 6800 Gaming X Trio 16G - Tarjeta Gráfica Enthusiast Gaming  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/RX-6800XT-PowerColor-Red-Devil/dp/B08T9H18TJ/ref=sr_1_26?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-26</t>
+          <t>https://www.amazon.es/MSI-Radeon-6800-Gaming-Trio/dp/B08QD49S3B/ref=sr_1_27?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-27</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>908</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>883</v>
+      </c>
+      <c r="G31" t="n">
+        <v>775</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1667,29 +1677,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RADEON RX6800 GAMING X TRIO 16GB GDDR6 HDMI DVI 3XDP  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 OC Edition - Trajeta gráfica (PCIe 4.0, 16 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, cojinetes de Bolas Dobles, Cubierta de Aluminio, GPU Tweak II)  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-grafica-DisplayPort-Ventole-Raffreddamento/dp/B08QD49S3B/ref=sr_1_23?keywords=6800xt&amp;qid=1671224975&amp;sr=8-23</t>
+          <t>https://www.amazon.es/ASUS-TUF-Gaming-Radeon-6800/dp/B08P8Y81LF/ref=sr_1_34?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-34</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>882</v>
-      </c>
-      <c r="E32" t="n">
-        <v>41</v>
+        <v>897</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="G32" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1704,25 +1716,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nitro+ Radeon RX 6800 OC GAMINGCTLR  </t>
+          <t xml:space="preserve">PowerLix Asrock RX6800XT PGD 16GO Tarjeta gráfica AMD GeForce 6800 XT 16 GB GDDR6  </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nitro-Radeon-RX-6800-GAMINGCTLR/dp/B08NX95TVN/ref=sr_1_30?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-30</t>
+          <t>https://www.amazon.es/Asrock-RX6800XT-Tarjeta-gr%C3%A1fica-GeForce/dp/B08QV6T8TG/ref=sr_1_5?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>917</v>
-      </c>
-      <c r="E33" t="n">
-        <v>30</v>
+        <v>901</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>947</v>
+        <v>901</v>
       </c>
       <c r="G33" t="n">
-        <v>761</v>
+        <v>861</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1741,31 +1755,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASROCK - Schede VGA Radeon RX6800XT Phantom Gamingd 16G OC GDDR6 1875 MHz HDMI DPX3  </t>
+          <t xml:space="preserve">Nitro+ Radeon RX 6800 OC GAMINGCTLR  </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/ASROCK-RX6800XT-Phantom-GAMINGD-1875MHZ/dp/B08QV6T8TG/ref=sr_1_34?keywords=6800xt&amp;qid=1671224975&amp;sr=8-34</t>
+          <t>https://www.amazon.es/Nitro-Radeon-RX-6800-GAMINGCTLR/dp/B08NX95TVN/ref=sr_1_32?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-32</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consegna a 12€ </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="G34" t="n">
-        <v>788</v>
+        <v>761</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1780,33 +1794,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE GigabyteAORUS Radeon RX 6800 X  </t>
+          <t xml:space="preserve">MSI RADEON RX6800 GAMING X TRIO 16GB GDDR6 HDMI DVI 3XDP  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/GIGABYTE-GigabyteAORUS-Radeon-RX-6800/dp/B08R411ZH3/ref=sr_1_22?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-22</t>
+          <t>https://www.amazon.it/MSI-grafica-DisplayPort-Ventole-Raffreddamento/dp/B08QD49S3B/ref=sr_1_25?keywords=6800xt&amp;qid=1671321358&amp;sr=8-25</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>953</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
-        </is>
+        <v>882</v>
+      </c>
+      <c r="E35" t="n">
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>953</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>923</v>
+      </c>
+      <c r="G35" t="n">
+        <v>812</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1821,29 +1831,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX 6800XT GAM Z TRIO 16G 912-V395-035  </t>
+          <t xml:space="preserve">ASUS TUF GAMING AMD Radeon RX 6800 XT OC Edition – Carte graphique gaming (16GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Ventilateurs à double roulement à billes)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/MSI-6800XT-GAM-TRIO-912-V395-035/dp/B092LHSDRW/ref=sr_1_10?keywords=6800xt&amp;qid=1671224975&amp;sr=8-10</t>
+          <t>https://www.amazon.fr/TUF-RX6800XT-O16G-Gaming-GDDR6-HDMI-DP-16/dp/B08QVRZH3C/ref=sr_1_11?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>957</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10</v>
+        <v>947</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="G36" t="n">
-        <v>950</v>
+        <v>729</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1858,25 +1870,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPPHIRE - NITRO+ AMD Radeon™ RX 6800 XT OC SE scheda grafica da gioco con 16GB GDDR6  </t>
+          <t xml:space="preserve">ASROCK - Schede VGA Radeon RX6800XT Phantom Gamingd 16G OC GDDR6 1875 MHz HDMI DPX3  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/SAPPHIRE-NITRO-RadeonTM-scheda-grafica/dp/B08NX6KLX2/ref=sr_1_18?keywords=6800xt&amp;qid=1671224975&amp;sr=8-18</t>
+          <t>https://www.amazon.it/ASROCK-RX6800XT-Phantom-GAMINGD-1875MHZ/dp/B08QV6T8TG/ref=sr_1_35?keywords=6800xt&amp;qid=1671321358&amp;sr=8-35</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>924</v>
-      </c>
-      <c r="E37" t="n">
-        <v>50</v>
+        <v>962</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consegna a 12€ </t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="G37" t="n">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1895,25 +1909,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 XT OC Edition Scheda Grafica, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Telaio in Alluminio, GPU Tweak II, Nero  </t>
+          <t xml:space="preserve">MSI RX 6800XT GAM Z TRIO 16G 912-V395-035  </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/TUF-RX6800XT-O16G-GAMING-16GB-GDDR6-HDMI-DP/dp/B08QVRZH3C/ref=sr_1_22?keywords=6800xt&amp;qid=1671224975&amp;sr=8-22</t>
+          <t>https://www.amazon.it/MSI-6800XT-GAM-TRIO-912-V395-035/dp/B092LHSDRW/ref=sr_1_10?keywords=6800xt&amp;qid=1671321358&amp;sr=8-10</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>1010</v>
+        <v>967</v>
       </c>
       <c r="G38" t="n">
-        <v>729</v>
+        <v>950</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1932,33 +1946,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Pulse AMD Radeon RX 6800 XT Gaming OC 16Go GDDR6 HDMI/Triple DP Carte Graphique  </t>
+          <t xml:space="preserve">GIGABYTE GigabyteAORUS Radeon RX 6800 X  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/SAPPHIRE-Pulse-RadeonTM-Gaming-Triple/dp/B08PQ585CX/ref=sr_1_4?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-4</t>
+          <t>https://www.amazon.es/GIGABYTE-GigabyteAORUS-Radeon-RX-6800/dp/B08R411ZH3/ref=sr_1_22?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-22</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1017</v>
+        <v>969</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recíbelo el </t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1017</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>969</v>
+      </c>
+      <c r="G39" t="n">
+        <v>834</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1973,31 +1985,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Technology Radeon RX 6800 XT Gaming OC - Tarjeta gráfica (16 GB) (GV-R68XTGAMING OC-16GD)  </t>
+          <t xml:space="preserve">SAPPHIRE - NITRO+ AMD Radeon™ RX 6800 XT OC SE scheda grafica da gioco con 16GB GDDR6  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6800-Gaming/dp/B08P3KWZV7/ref=sr_1_3?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-3</t>
+          <t>https://www.amazon.it/SAPPHIRE-NITRO-RadeonTM-scheda-grafica/dp/B08NX6KLX2/ref=sr_1_20?keywords=6800xt&amp;qid=1671321358&amp;sr=8-20</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1082</v>
+        <v>924</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>1088</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>974</v>
+      </c>
+      <c r="G40" t="n">
+        <v>823</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2012,29 +2022,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX SPEEDSTER SWFT 319 AMD RADEON RX 6800 XT CORE 16GB GDDR6 RX-68XTAQFD9  </t>
+          <t xml:space="preserve">ASUS TUF Gaming AMD Radeon RX 6800 XT OC Edition Scheda Grafica, PCIe 4.0, 16GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Ventole Axial Tech, Doppi Cuscinetti a Sfera, Telaio in Alluminio, GPU Tweak II, Nero  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/XFX-Speedster-RadeonTM-Gaming-Graphics/dp/B09NM7WMXG/ref=sr_1_4?keywords=6800xt&amp;qid=1671224975&amp;sr=8-4</t>
+          <t>https://www.amazon.it/TUF-RX6800XT-O16G-GAMING-16GB-GDDR6-HDMI-DP/dp/B08QVRZH3C/ref=sr_1_14?keywords=6800xt&amp;qid=1671321358&amp;sr=8-14</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1113</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
-        </is>
+        <v>999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1113</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1010</v>
+      </c>
+      <c r="G41" t="n">
+        <v>729</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2053,16 +2059,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster SWFT 319 AMD Radeon RX 6800 XT Core Gaming Graphics Card with 16Go GDDR6, AMD RDNA 2 RX-68XTAQFD9  </t>
+          <t xml:space="preserve">Sapphire Pulse AMD Radeon RX 6800 XT Gaming OC 16Go GDDR6 HDMI/Triple DP Carte Graphique  </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-Radeon-Graphics-RX-68XTAQFD9/dp/B09NM7WMXG/ref=sr_1_5?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-5</t>
+          <t>https://www.amazon.fr/SAPPHIRE-Pulse-RadeonTM-Gaming-Triple/dp/B08PQ585CX/ref=sr_1_4?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1114</v>
+        <v>1017</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2070,10 +2076,12 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1114</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1113</v>
+        <v>1017</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2092,31 +2100,33 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pulse Radeon RX 6800 XT Gaming CTLR  </t>
+          <t xml:space="preserve">MSI Gaming AMD Radeon RX 6800 XT 16GB GDRR6 256-bit HDMI/DP 2310MHz Boost Clock RDNA 2 OC Grafikkarte (RX 6800 XT Gaming Z Trio 16G)  </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Pulse-Radeon-6800-Gaming-CTLR/dp/B08PQ585CX/ref=sr_1_4?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-4</t>
+          <t>https://www.amazon.de/MSI-Radeon-6800-Grafikkarte-16G/dp/B09S596QVD/ref=sr_1_11?keywords=6800xt&amp;qid=1671321359&amp;sr=8-11</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1116</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1115</v>
+        <v>1033</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2131,31 +2141,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte - Scheda video Radeon RX 6800 XT Gaming OC, 16 GB  </t>
+          <t xml:space="preserve">Powercolor RX 6800XT Red Devil Edition 16 Go  </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-Radeon-GAMING-Scheda-grafica/dp/B08P3KWZV7/ref=sr_1_7?keywords=6800xt&amp;qid=1671224975&amp;sr=8-7</t>
+          <t>https://www.amazon.fr/RX-6800XT-PowerColor-Red-Devil/dp/B08T9H18TJ/ref=sr_1_30?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-30</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1143</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5</v>
+        <v>1041</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>1148</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1041</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1021</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2170,33 +2180,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Carte Graphique AMD Radeon RX 6800 XT Gaming OC 16 Go, mémoire GDDR6, Alimentation par AMD RDNA 2, HDMI 2.1, système de Refroidissement WINDFORCE 3X, GV-R68XTGAMING OC-16GD  </t>
+          <t xml:space="preserve">RX 6800XT PowerColor Red Devil Edition 16GB  </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/GIGABYTE-Graphique-Refroidissement-GV-R68XTGAMING-OC-16GD/dp/B08PFX6PZ6/ref=sr_1_35?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-35</t>
+          <t>https://www.amazon.es/6800XT-PowerColor-Red-Devil-16GB/dp/B08T9H18TJ/ref=sr_1_39?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-39</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1177</v>
+        <v>1043</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1177</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1043</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2211,33 +2219,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIGABYTE Scheda grafica AMD Radeon RX 6800 XT Gaming OC 16G, 16 GB di memoria GDDR6, alimentato da AMD RDNA 2, HDMI 2.1, WINDFORCE 3X sistema di raffreddamento, GV-R68XTGAMING OC-16GD  </t>
+          <t xml:space="preserve">ASROCK - VGA CARDS Radeon RX6800XT Phantom Gaming 16G OC GDDR6 1875MHz HDMI DPX3  </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/alimentato-raffreddamento-WINDFORCE-GV-R68XTGAMING-OC-16GD/dp/B08PFX6PZ6/ref=sr_1_6?keywords=6800xt&amp;qid=1671224975&amp;sr=8-6</t>
+          <t>https://www.amazon.de/ASROCK-Radeon-RX6800XT-Phantom-1875MHz/dp/B08QV6T8TG/ref=sr_1_5?keywords=6800xt&amp;qid=1671321359&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1177</v>
+        <v>1056</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consegna GRATUITA </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1177</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1056</v>
+      </c>
+      <c r="G46" t="n">
+        <v>726</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2252,25 +2258,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte Technology AORUS Radeon RX 6800 Master 16G AMD 16 GB GDDR6 (GV-R68AORUS M-16GD)  </t>
+          <t xml:space="preserve">Gigabyte Technology Radeon RX 6800 XT Gaming OC - Tarjeta gráfica (16 GB) (GV-R68XTGAMING OC-16GD)  </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-GV-R68AORUS-M-16GD/dp/B08SJ7KDHS/ref=sr_1_26?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-26</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-6800-Gaming/dp/B08P3KWZV7/ref=sr_1_3?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1222</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
+        <v>1082</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>1227</v>
-      </c>
-      <c r="G47" t="n">
-        <v>995</v>
+        <v>1082</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2289,24 +2299,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASUS ROG STRIX LC AMD Radeon RX 6800 XT OC Edition – Carte graphique gaming (16GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Radiateur de 240mm, Tuyau de watercooling de 600mm)  </t>
+          <t xml:space="preserve">XFX SPEEDSTER SWFT 319 AMD RADEON RX 6800 XT CORE 16GB GDDR6 RX-68XTAQFD9  </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/ASUS-STRIX-LC-RX6800XT-O16G-GAMING-Radeon-6800-GDDR6/dp/B08QVRFH9F/ref=sr_1_36?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-36</t>
+          <t>https://www.amazon.it/XFX-Speedster-RadeonTM-Gaming-Graphics/dp/B09NM7WMXG/ref=sr_1_4?keywords=6800xt&amp;qid=1671321358&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1231</v>
+        <v>1113</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Consegna GRATUITA </t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1231</v>
+        <v>1113</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2315,7 +2325,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2330,22 +2340,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6800 MASTER - Scheda grafica da 16 GB  </t>
+          <t xml:space="preserve">XFX Speedster SWFT 319 AMD Radeon RX 6800 XT Core Gaming Graphics Card with 16Go GDDR6, AMD RDNA 2 RX-68XTAQFD9  </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6800-MASTER/dp/B08SJ7KDHS/ref=sr_1_20?keywords=6800xt&amp;qid=1671224975&amp;sr=8-20</t>
+          <t>https://www.amazon.fr/XFX-Speedster-Radeon-Graphics-RX-68XTAQFD9/dp/B09NM7WMXG/ref=sr_1_5?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1235</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
+        <v>1114</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
       </c>
       <c r="F49" t="n">
-        <v>1240</v>
+        <v>1114</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2354,7 +2366,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonFR</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2369,29 +2381,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6800 XT MASTER 16G AMD 16 GB GDDR6  </t>
+          <t xml:space="preserve">Pulse Radeon RX 6800 XT Gaming CTLR  </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6800-MASTER/dp/B08R411ZH3/ref=sr_1_5?keywords=6800xt&amp;qid=1671224975&amp;sr=8-5</t>
+          <t>https://www.amazon.es/Pulse-Radeon-6800-Gaming-CTLR/dp/B08PQ585CX/ref=sr_1_4?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-4</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1310</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10</v>
+        <v>1134</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
       </c>
       <c r="F50" t="n">
-        <v>1320</v>
+        <v>1134</v>
       </c>
       <c r="G50" t="n">
-        <v>1299</v>
+        <v>731</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>AmazonIT</t>
+          <t>AmazonES</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2406,31 +2420,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster SWFT 319 AMD Radeon RX 6800 XT Core Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 (RX-68XTAQFD9)  </t>
+          <t xml:space="preserve">Gigabyte - Scheda video Radeon RX 6800 XT Gaming OC, 16 GB  </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-Radeon-Graphics-RX-68XTAQFD9/dp/B09NM7WMXG/ref=sr_1_12?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-12</t>
+          <t>https://www.amazon.it/Gigabyte-Radeon-GAMING-Scheda-grafica/dp/B08P3KWZV7/ref=sr_1_7?keywords=6800xt&amp;qid=1671321358&amp;sr=8-7</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1343</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
-        </is>
+        <v>1143</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>1343</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1113</v>
+        <v>1148</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2445,16 +2459,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Memory PC AMD Ryzen 5 5600X 6X 4.6 GHz, 16 Go DDR4 RAM, 1TB M.2 SSD, AMD Radeon RX 6800 XT 16GB, Windows 11 Pro  </t>
+          <t xml:space="preserve">GIGABYTE Carte Graphique AMD Radeon RX 6800 XT Gaming OC 16 Go, mémoire GDDR6, Alimentation par AMD RDNA 2, HDMI 2.1, système de Refroidissement WINDFORCE 3X, GV-R68XTGAMING OC-16GD  </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/Memory-PC-Ryzen-Radeon-Windows/dp/B09WF1QQ5S/ref=sr_1_45?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-45</t>
+          <t>https://www.amazon.fr/GIGABYTE-Graphique-Refroidissement-GV-R68XTGAMING-OC-16GD/dp/B08PFX6PZ6/ref=sr_1_38?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-38</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1419</v>
+        <v>1177</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2462,7 +2476,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1419</v>
+        <v>1177</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2486,24 +2500,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX RX 6800 16GB Compatible Swift 319 Gaming  </t>
+          <t xml:space="preserve">GIGABYTE Scheda grafica AMD Radeon RX 6800 XT Gaming OC 16G, 16 GB di memoria GDDR6, alimentato da AMD RDNA 2, HDMI 2.1, WINDFORCE 3X sistema di raffreddamento, GV-R68XTGAMING OC-16GD  </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/XFX-Speedster-SWFT319-RadeonTM-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_19?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-19</t>
+          <t>https://www.amazon.it/alimentato-raffreddamento-WINDFORCE-GV-R68XTGAMING-OC-16GD/dp/B08PFX6PZ6/ref=sr_1_6?keywords=6800xt&amp;qid=1671321358&amp;sr=8-6</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1467</v>
+        <v>1177</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS el </t>
+          <t xml:space="preserve">Consegna GRATUITA </t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1467</v>
+        <v>1177</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2512,7 +2526,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AmazonES</t>
+          <t>AmazonIT</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2527,33 +2541,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI RX 6800XT GAM X Trio 16G Carte Graphique Taille Unique Noir  </t>
+          <t xml:space="preserve">Gigabyte RX 6800 XT Master 16G Einheitsgröße  </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/MSI-Graphique-DisplayPort-Refroidissement-Ventilateurs/dp/B08QCLRN7S/ref=sr_1_22?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-22</t>
+          <t>https://www.amazon.de/GIGABYTE-RX-6800-Master-16G/dp/B08R411ZH3/ref=sr_1_3?keywords=6800xt&amp;qid=1671321359&amp;sr=8-3</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1489</v>
+        <v>1188</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le entre le </t>
+          <t xml:space="preserve">Lieferung bis </t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1489</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
+        <v>1188</v>
+      </c>
+      <c r="G54" t="n">
+        <v>799</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AmazonFR</t>
+          <t>AmazonDE</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2568,27 +2580,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSI Radeon RX 6800 XT Gaming X Trio 16G - Tarjeta Gráfica Enthusiast Gaming  </t>
+          <t xml:space="preserve">Gigabyte Technology AORUS Radeon RX 6800 Master 16G AMD 16 GB GDDR6 (GV-R68AORUS M-16GD)  </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/MSI-Radeon-6800-Gaming-Trio/dp/B08QCLRN7S/ref=sr_1_6?keywords=6800+xt&amp;qid=1671224973&amp;sr=8-6</t>
+          <t>https://www.amazon.es/Gigabyte-Technology-Radeon-GV-R68AORUS-M-16GD/dp/B08SJ7KDHS/ref=sr_1_24?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-24</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1658</v>
+        <v>1222</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrega GRATIS entre el </t>
+          <t xml:space="preserve">Recíbelo entre el </t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1658</v>
+        <v>1222</v>
       </c>
       <c r="G55" t="n">
-        <v>1599</v>
+        <v>995</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2607,24 +2619,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">XFX Speedster SWFT 319 RAD RX6800 16GB GAM  </t>
+          <t xml:space="preserve">ASUS ROG STRIX LC AMD Radeon RX 6800 XT OC Edition – Carte graphique gaming (16GB GDDR6, AMD RDNA 2, PCIe 4.0, HDMI 2.1, DisplayPort 1.4a, Radiateur de 240mm, Tuyau de watercooling de 600mm)  </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/XFX-Speedster-RadeonTM-Graphique-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_6?keywords=6800+xt&amp;qid=1671224974&amp;sr=8-6</t>
+          <t>https://www.amazon.fr/ASUS-STRIX-LC-RX6800XT-O16G-GAMING-Radeon-6800-GDDR6/dp/B08QVRFH9F/ref=sr_1_41?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-41</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1839</v>
+        <v>1232</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recevez-le </t>
+          <t xml:space="preserve">Recevez-le entre le </t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1839</v>
+        <v>1232</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2648,34 +2660,391 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6800 MASTER - Scheda grafica da 16 GB  </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6800-MASTER/dp/B08SJ7KDHS/ref=sr_1_37?keywords=6800xt&amp;qid=1671321358&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1235</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1240</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigabyte AORUS Radeon RX 6800 XT MASTER 16G AMD 16 GB GDDR6  </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/Gigabyte-AORUS-Radeon-6800-MASTER/dp/B08R411ZH3/ref=sr_1_5?keywords=6800xt&amp;qid=1671321358&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1269</v>
+      </c>
+      <c r="G58" t="n">
+        <v>758</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AmazonIT</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster SWFT 319 Rad RX6800 16GB GAM  </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/XFX-Speedster-RadeonTM-Grafikkarte-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_9?keywords=6800xt&amp;qid=1671321359&amp;sr=8-9</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieferung bis </t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>AmazonDE</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster SWFT 319 AMD Radeon RX 6800 XT Core Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 (RX-68XTAQFD9)  </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XFX-Speedster-Radeon-Graphics-RX-68XTAQFD9/dp/B09NM7WMXG/ref=sr_1_11?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-11</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1113</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memory PC AMD Ryzen 5 5600X 6X 4.6 GHz, 16 Go DDR4 RAM, 1TB M.2 SSD, AMD Radeon RX 6800 XT 16GB, Windows 11 Pro  </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/Memory-PC-Ryzen-Radeon-Windows/dp/B09WF1QQ5S/ref=sr_1_43?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1419</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSI RX 6800XT GAM X Trio 16G Carte Graphique Taille Unique Noir  </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/MSI-Graphique-DisplayPort-Refroidissement-Ventilateurs/dp/B08QCLRN7S/ref=sr_1_22?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-22</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le entre le </t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX RX 6800 16GB Compatible Swift 319 Gaming  </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XFX-Speedster-SWFT319-RadeonTM-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_19?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-19</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1491</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo el </t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1467</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSI Radeon RX 6800 XT Gaming X Trio 16G - Tarjeta Gráfica Enthusiast Gaming  </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/MSI-Radeon-6800-Gaming-Trio/dp/B08QCLRN7S/ref=sr_1_6?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recíbelo entre el </t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1658</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1599</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>AmazonES</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XFX Speedster SWFT 319 RAD RX6800 16GB GAM  </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/XFX-Speedster-RadeonTM-Graphique-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_6?keywords=6800+xt&amp;qid=1671321357&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recevez-le </t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1839</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AmazonFR</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t xml:space="preserve">XFX, SPEEDSTER SWFT 319 RAD, RX6800, 16GB, GAM  </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.amazon.it/XFX-SPEEDSTER-SWFT319-RadeonTM-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_2?keywords=6800xt&amp;qid=1671224975&amp;sr=8-2</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.it/XFX-SPEEDSTER-SWFT319-RadeonTM-RX-68XLAQFD9/dp/B09KW68M2G/ref=sr_1_3?keywords=6800xt&amp;qid=1671321358&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>2138</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E66" t="n">
         <v>9</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F66" t="n">
         <v>2147</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>No more buying options</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No more buying options</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>AmazonIT</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
